--- a/Prezentare/note.xlsx
+++ b/Prezentare/note.xlsx
@@ -85,6 +85,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -108,42 +130,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,14 +163,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,16 +193,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,27 +224,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,19 +238,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,37 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,31 +394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,84 +419,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +443,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +482,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -481,30 +501,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -527,29 +523,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,134 +567,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,9 +706,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,7 +1032,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1098,13 +1095,21 @@
         <f>D1</f>
         <v>Elena Vizitiu</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" ht="15.75" spans="1:6">
       <c r="A5" s="2" t="str">
@@ -1141,26 +1146,26 @@
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4">
         <f>AVERAGE(B2:B6)</f>
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>AVERAGE(C2:C6)</f>
         <v>10</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>AVERAGE(D2:D6)</f>
         <v>10</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f>AVERAGE(E2:E6)</f>
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="e">
+      <c r="F7" s="4">
         <f>AVERAGE(F2:F6)</f>
-        <v>#DIV/0!</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
